--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23595" windowHeight="11520"/>
+    <workbookView windowWidth="21075" windowHeight="11520"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -31,12 +31,18 @@
     <t>name_en</t>
   </si>
   <si>
+    <t>life</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -52,10 +58,10 @@
     <t>名字-英文</t>
   </si>
   <si>
+    <t>基础生命值</t>
+  </si>
+  <si>
     <t>Skeleton</t>
-  </si>
-  <si>
-    <t>角色创建数据-头发</t>
   </si>
   <si>
     <t>骷髅</t>
@@ -70,8 +76,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -91,75 +97,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,31 +188,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,181 +248,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,17 +451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,8 +478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,17 +489,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,11 +508,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,7 +541,7 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -547,133 +553,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,20 +1035,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,56 +1065,68 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21075" windowHeight="11520"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -67,7 +67,10 @@
     <t>骷髅</t>
   </si>
   <si>
-    <t>skeleton</t>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>牛</t>
   </si>
 </sst>
 </file>
@@ -75,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -90,6 +93,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -97,16 +114,79 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -119,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,23 +207,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,83 +231,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,25 +245,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,157 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,15 +454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -478,8 +472,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +527,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -541,145 +544,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
@@ -1123,10 +1126,30 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>100001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="22515" windowHeight="9990"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>牛</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>羊</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>猪</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>鸡</t>
   </si>
 </sst>
 </file>
@@ -78,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,85 +110,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,6 +126,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -191,6 +156,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -198,8 +200,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,30 +240,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,187 +263,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +472,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -473,7 +511,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,23 +519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,22 +540,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -556,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,13 +1056,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
@@ -1149,7 +1167,67 @@
         <v>17</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>100011</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>100021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>100031</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -96,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,11 +110,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,22 +192,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,36 +217,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,9 +231,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,40 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,49 +263,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,25 +371,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,84 +437,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -432,18 +444,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,26 +472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -507,11 +487,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +507,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,17 +535,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,10 +562,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,103 +574,97 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -679,28 +673,34 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1152,7 +1152,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>100001</v>
+        <v>10001</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>100011</v>
+        <v>10011</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>100021</v>
+        <v>10021</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>100031</v>
+        <v>10031</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -34,6 +34,12 @@
     <t>life</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
@@ -61,34 +67,70 @@
     <t>基础生命值</t>
   </si>
   <si>
+    <t>掉落</t>
+  </si>
+  <si>
+    <t>产出</t>
+  </si>
+  <si>
     <t>Skeleton</t>
   </si>
   <si>
     <t>骷髅</t>
   </si>
   <si>
+    <t>310011,1,1|310011,1,1|310011,1,0.5|310011,1,0.1</t>
+  </si>
+  <si>
     <t>Cow</t>
   </si>
   <si>
     <t>牛</t>
   </si>
   <si>
+    <t>310021,1,1|310021,1,1|310021,1,0.5|310021,1,0.1</t>
+  </si>
+  <si>
     <t>Sheep</t>
   </si>
   <si>
     <t>羊</t>
   </si>
   <si>
+    <t>310031,1,1|310031,1,1|310031,1,0.5|310031,1,0.1</t>
+  </si>
+  <si>
+    <t>310101,1,1|310101,1,0.5</t>
+  </si>
+  <si>
     <t>Pig</t>
   </si>
   <si>
     <t>猪</t>
   </si>
   <si>
+    <t>ChickenBig</t>
+  </si>
+  <si>
+    <t>鸡</t>
+  </si>
+  <si>
     <t>Chicken</t>
   </si>
   <si>
-    <t>鸡</t>
+    <t>310001,1,1|310001,1,0.5|310001,1,0.1</t>
+  </si>
+  <si>
+    <t>310201,1,1</t>
+  </si>
+  <si>
+    <t>ChickenSmall</t>
+  </si>
+  <si>
+    <t>小鸡</t>
+  </si>
+  <si>
+    <t>Small Chicken</t>
   </si>
 </sst>
 </file>
@@ -96,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -111,7 +153,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +166,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -131,8 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,17 +205,25 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,17 +236,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,13 +258,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -217,6 +268,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -224,31 +282,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +496,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -487,6 +538,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -513,30 +588,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,15 +596,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -562,145 +604,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,21 +1098,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="49.125" customWidth="1"/>
+    <col min="8" max="8" width="33.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,145 +1133,204 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>10001</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>10011</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>10021</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>10031</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F8">
         <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>10032</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22515" windowHeight="9990"/>
+    <workbookView windowWidth="24330" windowHeight="17190"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -79,34 +79,79 @@
     <t>骷髅</t>
   </si>
   <si>
+    <t>1010001,1,1|1010001,1,0.5</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>1010003,1,1|1010003,1,0.5|1010003,1,0.1</t>
+  </si>
+  <si>
+    <t>Witch</t>
+  </si>
+  <si>
+    <t>巫师</t>
+  </si>
+  <si>
+    <t>The Witch</t>
+  </si>
+  <si>
+    <t>1200011,1,0.1|1200012,1,0.1|1200013,1,0.1</t>
+  </si>
+  <si>
+    <t>MushroomMan</t>
+  </si>
+  <si>
+    <t>蘑菇人</t>
+  </si>
+  <si>
+    <t>Mushroom Man</t>
+  </si>
+  <si>
+    <t>10000031,1,0.5|10000031,1,0.5|10000031,1,0.5</t>
+  </si>
+  <si>
+    <t>EyeBall</t>
+  </si>
+  <si>
+    <t>眼球怪</t>
+  </si>
+  <si>
+    <t>10000041,1,0.1</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>牛</t>
+  </si>
+  <si>
+    <t>310021,1,1|310021,1,1|310021,1,0.5|310021,1,0.1</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>羊</t>
+  </si>
+  <si>
+    <t>310031,1,1|310031,1,1|310031,1,0.5|310031,1,0.1</t>
+  </si>
+  <si>
+    <t>310101,1,1|310101,1,0.5</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>猪</t>
+  </si>
+  <si>
     <t>310011,1,1|310011,1,1|310011,1,0.5|310011,1,0.1</t>
-  </si>
-  <si>
-    <t>Cow</t>
-  </si>
-  <si>
-    <t>牛</t>
-  </si>
-  <si>
-    <t>310021,1,1|310021,1,1|310021,1,0.5|310021,1,0.1</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>羊</t>
-  </si>
-  <si>
-    <t>310031,1,1|310031,1,1|310031,1,0.5|310031,1,0.1</t>
-  </si>
-  <si>
-    <t>310101,1,1|310101,1,0.5</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>猪</t>
   </si>
   <si>
     <t>ChickenBig</t>
@@ -140,8 +185,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -153,6 +198,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -160,7 +212,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,53 +233,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -229,14 +267,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,14 +280,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -266,6 +288,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -274,6 +303,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -283,6 +313,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -290,7 +335,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,187 +350,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,15 +541,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -523,6 +559,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -534,30 +579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,8 +601,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,6 +632,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -604,145 +649,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,10 +1143,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1110,6 +1155,7 @@
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="49.125" customWidth="1"/>
     <col min="8" max="8" width="33.375" customWidth="1"/>
   </cols>
@@ -1209,7 +1255,7 @@
         <v>19</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -1217,7 +1263,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>10001</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -1232,15 +1278,15 @@
         <v>22</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6">
-        <v>10011</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1252,21 +1298,18 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>10021</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -1278,27 +1321,27 @@
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8">
-        <v>10031</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1307,15 +1350,12 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
-        <v>10032</v>
+        <v>10001</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
@@ -1327,9 +1367,107 @@
         <v>37</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
-      <c r="F9">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>10011</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10031</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10032</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24330" windowHeight="17190"/>
+    <workbookView windowWidth="28410" windowHeight="16575"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -37,7 +37,28 @@
     <t>drop</t>
   </si>
   <si>
-    <t>output</t>
+    <t>output_res</t>
+  </si>
+  <si>
+    <t>sight_range</t>
+  </si>
+  <si>
+    <t>speed_move</t>
+  </si>
+  <si>
+    <t>dis_loss</t>
+  </si>
+  <si>
+    <t>dis_attack_melee</t>
+  </si>
+  <si>
+    <t>dis_attack_remote</t>
+  </si>
+  <si>
+    <t>time_interval_attack_melee</t>
+  </si>
+  <si>
+    <t>time_interval_attack_remote</t>
   </si>
   <si>
     <t>long</t>
@@ -49,6 +70,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -70,7 +94,28 @@
     <t>掉落</t>
   </si>
   <si>
-    <t>产出</t>
+    <t>资源产出（牛奶 羽毛之类的）</t>
+  </si>
+  <si>
+    <t>视野距离</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>目标丢失距离</t>
+  </si>
+  <si>
+    <t>近战攻击距离</t>
+  </si>
+  <si>
+    <t>远程攻击距离</t>
+  </si>
+  <si>
+    <t>近战攻击间隔</t>
+  </si>
+  <si>
+    <t>远程攻击间隔</t>
   </si>
   <si>
     <t>Skeleton</t>
@@ -184,9 +229,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,14 +243,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +264,64 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,68 +333,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -320,7 +358,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,7 +373,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,25 +395,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,157 +545,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,15 +604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -583,6 +619,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -594,15 +648,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,6 +669,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -632,15 +686,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -649,10 +694,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,31 +706,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,100 +745,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1143,13 +1188,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
@@ -1158,9 +1203,16 @@
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="49.125" customWidth="1"/>
     <col min="8" max="8" width="33.375" customWidth="1"/>
+    <col min="9" max="9" width="15.875" customWidth="1"/>
+    <col min="10" max="10" width="16.125" customWidth="1"/>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="25.25" customWidth="1"/>
+    <col min="13" max="13" width="25.375" customWidth="1"/>
+    <col min="14" max="14" width="28.625" customWidth="1"/>
+    <col min="15" max="15" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,290 +1237,563 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F4">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="F5">
         <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>39</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F7">
         <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>47</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>50</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>1.5</v>
+      </c>
+      <c r="K8">
+        <v>20</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>10001</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>20</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>10011</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>57</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10021</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>60</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>20</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>10031</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>20</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>10032</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>2</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>20</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28410" windowHeight="16575"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>name_en</t>
   </si>
   <si>
+    <t>creature_type</t>
+  </si>
+  <si>
     <t>life</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>名字-英文</t>
+  </si>
+  <si>
+    <t>生物类型</t>
   </si>
   <si>
     <t>基础生命值</t>
@@ -1188,10 +1194,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1199,20 +1205,20 @@
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="49.125" customWidth="1"/>
-    <col min="8" max="8" width="33.375" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="17.875" customWidth="1"/>
-    <col min="12" max="12" width="25.25" customWidth="1"/>
-    <col min="13" max="13" width="25.375" customWidth="1"/>
-    <col min="14" max="14" width="28.625" customWidth="1"/>
-    <col min="15" max="15" width="35.75" customWidth="1"/>
+    <col min="5" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="49.125" customWidth="1"/>
+    <col min="9" max="9" width="33.375" customWidth="1"/>
+    <col min="10" max="10" width="15.875" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="17.875" customWidth="1"/>
+    <col min="13" max="13" width="25.25" customWidth="1"/>
+    <col min="14" max="14" width="25.375" customWidth="1"/>
+    <col min="15" max="15" width="28.625" customWidth="1"/>
+    <col min="16" max="16" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1258,541 +1264,580 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
-        <v>18</v>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4">
-        <v>15</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>30</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>15</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5">
         <v>10</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>20</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>2</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
       <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6">
         <v>10</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>20</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0</v>
       </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
       <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>20</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
       <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8">
         <v>10</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1.5</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>20</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>2</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
       <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>10001</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9">
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9">
         <v>10</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>20</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
       <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>10011</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
-        <v>56</v>
-      </c>
       <c r="H10" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10">
+        <v>58</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10">
         <v>10</v>
       </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>20</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>2</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
       <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10021</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11">
         <v>10</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
       <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>20</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0</v>
       </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
       <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>10031</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>64</v>
-      </c>
       <c r="H12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12">
+        <v>66</v>
+      </c>
+      <c r="I12" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12">
         <v>10</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
       <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>20</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
       <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>10032</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="J13">
         <v>10</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>20</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
       <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
         <v>0</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="13620" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>output_res</t>
   </si>
   <si>
+    <t>range_damage</t>
+  </si>
+  <si>
     <t>sight_range</t>
   </si>
   <si>
@@ -103,6 +106,9 @@
     <t>资源产出（牛奶 羽毛之类的）</t>
   </si>
   <si>
+    <t>攻击范围（近战）</t>
+  </si>
+  <si>
     <t>视野距离</t>
   </si>
   <si>
@@ -133,6 +139,9 @@
     <t>1010001,1,1|1010001,1,0.5</t>
   </si>
   <si>
+    <t>2,2,2</t>
+  </si>
+  <si>
     <t>Slime</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
   </si>
   <si>
     <t>1010003,1,1|1010003,1,0.5|1010003,1,0.1</t>
+  </si>
+  <si>
+    <t>1.5,1.5,1.5</t>
   </si>
   <si>
     <t>Witch</t>
@@ -1194,10 +1206,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1208,17 +1220,17 @@
     <col min="5" max="6" width="16.125" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="49.125" customWidth="1"/>
-    <col min="9" max="9" width="33.375" customWidth="1"/>
-    <col min="10" max="10" width="15.875" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="17.875" customWidth="1"/>
-    <col min="13" max="13" width="25.25" customWidth="1"/>
-    <col min="14" max="14" width="25.375" customWidth="1"/>
-    <col min="15" max="15" width="28.625" customWidth="1"/>
-    <col min="16" max="16" width="35.75" customWidth="1"/>
+    <col min="9" max="10" width="33.375" customWidth="1"/>
+    <col min="11" max="11" width="15.875" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="25.25" customWidth="1"/>
+    <col min="15" max="15" width="25.375" customWidth="1"/>
+    <col min="16" max="16" width="28.625" customWidth="1"/>
+    <col min="17" max="17" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1267,122 +1279,131 @@
       <c r="P1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1391,45 +1412,48 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4">
         <v>15</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>30</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>15</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
       <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1438,45 +1462,48 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>20</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>2</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0</v>
       </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
       <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1485,45 +1512,45 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6">
+        <v>49</v>
+      </c>
+      <c r="K6">
         <v>10</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>20</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
       <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1532,45 +1559,45 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7">
+        <v>53</v>
+      </c>
+      <c r="K7">
         <v>10</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
       <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
         <v>20</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>2</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0</v>
       </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
       <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1579,45 +1606,45 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8">
+        <v>56</v>
+      </c>
+      <c r="K8">
         <v>10</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1.5</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>20</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>2</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0</v>
       </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
       <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>10001</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1626,45 +1653,45 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9">
+        <v>59</v>
+      </c>
+      <c r="K9">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
       <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
         <v>20</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
       <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>10011</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1673,48 +1700,48 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10">
+        <v>63</v>
+      </c>
+      <c r="K10">
         <v>10</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
         <v>20</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>2</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0</v>
       </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
       <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10021</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1723,45 +1750,45 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11">
+        <v>66</v>
+      </c>
+      <c r="K11">
         <v>10</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
         <v>20</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>2</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0</v>
       </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
       <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>10031</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1770,48 +1797,48 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12">
+        <v>71</v>
+      </c>
+      <c r="K12">
         <v>10</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <v>20</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0</v>
       </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
       <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>10032</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1819,25 +1846,25 @@
       <c r="G13">
         <v>2</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
         <v>20</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0</v>
       </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
       <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
       </c>
     </row>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13620" windowHeight="11505"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>id</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>10000031,1,0.5|10000031,1,0.5|10000031,1,0.5</t>
+  </si>
+  <si>
+    <t>4,4,4</t>
   </si>
   <si>
     <t>EyeBall</t>
@@ -1208,8 +1211,8 @@
   <sheetPr/>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1514,14 +1517,17 @@
       <c r="H6" t="s">
         <v>49</v>
       </c>
+      <c r="J6" t="s">
+        <v>41</v>
+      </c>
       <c r="K6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1561,23 +1567,26 @@
       <c r="H7" t="s">
         <v>53</v>
       </c>
+      <c r="J7" t="s">
+        <v>54</v>
+      </c>
       <c r="K7">
         <v>10</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M7">
         <v>20</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -1588,16 +1597,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
         <v>55</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1606,7 +1615,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1635,16 +1644,16 @@
         <v>10001</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
         <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1653,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1682,16 +1691,16 @@
         <v>10011</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" t="s">
         <v>61</v>
-      </c>
-      <c r="E10" t="s">
-        <v>60</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1700,10 +1709,10 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1732,16 +1741,16 @@
         <v>10021</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" t="s">
         <v>65</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1750,7 +1759,7 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1779,16 +1788,16 @@
         <v>10031</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1797,10 +1806,10 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1829,16 +1838,16 @@
         <v>10032</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s">
         <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>2</v>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17820"/>
+    <workbookView windowWidth="22275" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
   <si>
     <t>id</t>
   </si>
@@ -67,6 +67,9 @@
     <t>time_interval_attack_remote</t>
   </si>
   <si>
+    <t>damage_data</t>
+  </si>
+  <si>
     <t>long</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>远程攻击间隔</t>
   </si>
   <si>
+    <t>伤害数据</t>
+  </si>
+  <si>
     <t>Skeleton</t>
   </si>
   <si>
@@ -140,6 +146,9 @@
   </si>
   <si>
     <t>2,2,2</t>
+  </si>
+  <si>
+    <t>Damage:2</t>
   </si>
   <si>
     <t>Slime</t>
@@ -1209,10 +1218,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1231,9 +1240,10 @@
     <col min="15" max="15" width="25.375" customWidth="1"/>
     <col min="16" max="16" width="28.625" customWidth="1"/>
     <col min="17" max="17" width="35.75" customWidth="1"/>
+    <col min="18" max="18" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1285,128 +1295,137 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1415,10 +1434,10 @@
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>15</v>
@@ -1441,22 +1460,25 @@
       <c r="Q4">
         <v>2</v>
       </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -1465,10 +1487,10 @@
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>10</v>
@@ -1491,22 +1513,25 @@
       <c r="Q5">
         <v>0</v>
       </c>
+      <c r="R5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1515,10 +1540,10 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K6">
         <v>20</v>
@@ -1541,22 +1566,25 @@
       <c r="Q6">
         <v>0</v>
       </c>
+      <c r="R6" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -1565,10 +1593,10 @@
         <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>10</v>
@@ -1591,22 +1619,25 @@
       <c r="Q7">
         <v>0</v>
       </c>
+      <c r="R7" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -1615,7 +1646,7 @@
         <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -1637,6 +1668,9 @@
       </c>
       <c r="Q8">
         <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1644,16 +1678,16 @@
         <v>10001</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1662,7 +1696,7 @@
         <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K9">
         <v>10</v>
@@ -1691,16 +1725,16 @@
         <v>10011</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1709,10 +1743,10 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -1741,16 +1775,16 @@
         <v>10021</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1759,7 +1793,7 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -1788,16 +1822,16 @@
         <v>10031</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1806,10 +1840,10 @@
         <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -1838,16 +1872,16 @@
         <v>10032</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F13">
         <v>2</v>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22275" windowHeight="8205"/>
+    <workbookView windowWidth="22275" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <t>2,2,2</t>
   </si>
   <si>
-    <t>Damage:2</t>
+    <t>Damage:2|KnockbackDis:0.5</t>
   </si>
   <si>
     <t>Slime</t>
@@ -1220,8 +1220,8 @@
   <sheetPr/>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22275" windowHeight="7605"/>
+    <workbookView windowWidth="23955" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
     <t>310031,1,1|310031,1,1|310031,1,0.5|310031,1,0.1</t>
   </si>
   <si>
-    <t>310101,1,1|310101,1,0.5</t>
+    <t>1011001,1,1|1011001,1,0.5</t>
   </si>
   <si>
     <t>Pig</t>
@@ -1220,8 +1220,8 @@
   <sheetPr/>
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
+++ b/ThaumAge/Assets/Data/Excel/excel_creature_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23955" windowHeight="11700"/>
+    <workbookView windowHeight="17820"/>
   </bookViews>
   <sheets>
     <sheet name="CreatureInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="81">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,7 @@
     <t>名字-英文</t>
   </si>
   <si>
-    <t>生物类型</t>
+    <t>生物类型(1玩家 2动物 3怪物 4傀儡)</t>
   </si>
   <si>
     <t>基础生命值</t>
@@ -251,6 +251,12 @@
   </si>
   <si>
     <t>Small Chicken</t>
+  </si>
+  <si>
+    <t>Golem</t>
+  </si>
+  <si>
+    <t>傀儡</t>
   </si>
 </sst>
 </file>
@@ -1218,10 +1224,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1229,7 +1235,8 @@
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="6" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="65.25" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="49.125" customWidth="1"/>
     <col min="9" max="10" width="33.375" customWidth="1"/>
@@ -1911,6 +1918,50 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>20001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
